--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03659999999999999</v>
+        <v>0.006525</v>
       </c>
       <c r="E2">
-        <v>0.146</v>
+        <v>-0.018415</v>
       </c>
       <c r="F2">
-        <v>-0.0107</v>
+        <v>0.0493</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.003044519965254967</v>
+        <v>6.727651377905428e-06</v>
       </c>
       <c r="J2">
-        <v>-0.002351192084520658</v>
+        <v>5.492689676102755e-06</v>
       </c>
       <c r="K2">
-        <v>24512.3</v>
+        <v>7661.639999999999</v>
       </c>
       <c r="L2">
-        <v>0.1903728970467399</v>
+        <v>0.07066551560027005</v>
       </c>
       <c r="M2">
-        <v>16563.0913</v>
+        <v>206.76</v>
       </c>
       <c r="N2">
-        <v>0.04996089630494108</v>
+        <v>0.0009022024893911791</v>
       </c>
       <c r="O2">
-        <v>0.6757053112111063</v>
+        <v>0.02698638933700879</v>
       </c>
       <c r="P2">
-        <v>16563.0913</v>
+        <v>196.26</v>
       </c>
       <c r="Q2">
-        <v>0.04996089630494108</v>
+        <v>0.0008563854738243026</v>
       </c>
       <c r="R2">
-        <v>0.6757053112111063</v>
+        <v>0.02561592557207073</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.05078351712130006</v>
       </c>
       <c r="U2">
-        <v>475975.3</v>
+        <v>825340.7000000001</v>
       </c>
       <c r="V2">
-        <v>1.435731541672612</v>
+        <v>3.601395019035879</v>
       </c>
       <c r="W2">
-        <v>0.04994600067472109</v>
+        <v>0.03184799360616127</v>
       </c>
       <c r="X2">
-        <v>0.09955949580502702</v>
+        <v>0.1215946110382755</v>
       </c>
       <c r="Y2">
-        <v>-0.04961349513030593</v>
+        <v>-0.08974661743211425</v>
       </c>
       <c r="Z2">
-        <v>0.08353677227187788</v>
+        <v>0.06215288831945077</v>
       </c>
       <c r="AA2">
-        <v>-6.164280811288309e-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04647404229998228</v>
+        <v>0.04202714911055785</v>
       </c>
       <c r="AC2">
-        <v>-0.04588325091128147</v>
+        <v>-0.04202714911055785</v>
       </c>
       <c r="AD2">
-        <v>1776525</v>
+        <v>2053884.6</v>
       </c>
       <c r="AE2">
-        <v>8631.852820071252</v>
+        <v>1.7778998221292</v>
       </c>
       <c r="AF2">
-        <v>1785156.852820071</v>
+        <v>2053886.377899822</v>
       </c>
       <c r="AG2">
-        <v>1309181.552820071</v>
+        <v>1228545.677899822</v>
       </c>
       <c r="AH2">
-        <v>0.8433766933896056</v>
+        <v>0.8996204161800616</v>
       </c>
       <c r="AI2">
-        <v>0.7979459281881846</v>
+        <v>0.813938212921608</v>
       </c>
       <c r="AJ2">
-        <v>0.7979395599622057</v>
+        <v>0.8427868270599632</v>
       </c>
       <c r="AK2">
-        <v>0.743340016914914</v>
+        <v>0.7235026460245283</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1331.368596180941</v>
+        <v>1892981.198156682</v>
       </c>
       <c r="AP2">
-        <v>981.1306939806883</v>
+        <v>1132300.16396297</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Standard Chartered PLC (LSE:STAN)</t>
+          <t>Lloyds Banking Group plc (LSE:LLOY)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0246</v>
+        <v>-0.0557</v>
       </c>
       <c r="E3">
-        <v>-0.223</v>
+        <v>0.00307</v>
       </c>
       <c r="F3">
-        <v>0.174</v>
+        <v>-0.144</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,41 +737,38 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00756736954886813</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003783684774434065</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>977</v>
+        <v>2127.2</v>
       </c>
       <c r="L3">
-        <v>0.06901667137609495</v>
+        <v>0.134381159347046</v>
       </c>
       <c r="M3">
-        <v>894.2640000000001</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02967595066087482</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.9153162743091097</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>894.2640000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02967595066087482</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.9153162743091097</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -779,61 +776,55 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01891834324109753</v>
+        <v>0.03610643863076617</v>
       </c>
       <c r="X3">
-        <v>0.04255420449697717</v>
+        <v>0.0347288780469264</v>
       </c>
       <c r="Y3">
-        <v>-0.02363586125587963</v>
+        <v>0.001377560583839775</v>
       </c>
       <c r="Z3">
-        <v>0.2485192529835431</v>
+        <v>0.2686867623869764</v>
       </c>
       <c r="AA3">
-        <v>0.0009403185136675598</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04223225981867084</v>
+        <v>0.0347288780469264</v>
       </c>
       <c r="AC3">
-        <v>-0.04129194130500328</v>
+        <v>-0.0347288780469264</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>804.3815833311137</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>804.3815833311137</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>804.3815833311137</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.02599921981693272</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01561894414373551</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02599921981693272</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.01561894414373551</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>3.001423818399678</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lloyds Banking Group plc (LSE:LLOY)</t>
+          <t>Arbuthnot Banking Group PLC (AIM:ARBB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +844,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0198</v>
+        <v>0.0919</v>
       </c>
       <c r="E4">
-        <v>0.605</v>
-      </c>
-      <c r="F4">
-        <v>-0.0664</v>
+        <v>-0.194</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.004994060775744014</v>
+        <v>0.002568481104477157</v>
       </c>
       <c r="J4">
-        <v>-0.003327295802314449</v>
+        <v>0.002276106339500225</v>
       </c>
       <c r="K4">
-        <v>3135.1</v>
+        <v>4.74</v>
       </c>
       <c r="L4">
-        <v>0.1505941916207933</v>
+        <v>0.05307950727883539</v>
       </c>
       <c r="M4">
-        <v>2871.3325</v>
+        <v>2.98</v>
       </c>
       <c r="N4">
-        <v>0.04953126698073662</v>
+        <v>0.0186833855799373</v>
       </c>
       <c r="O4">
-        <v>0.9158663200535868</v>
+        <v>0.6286919831223629</v>
       </c>
       <c r="P4">
-        <v>2871.3325</v>
+        <v>2.98</v>
       </c>
       <c r="Q4">
-        <v>0.04953126698073662</v>
+        <v>0.0186833855799373</v>
       </c>
       <c r="R4">
-        <v>0.9158663200535868</v>
+        <v>0.6286919831223629</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,55 +892,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>674.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.226959247648903</v>
       </c>
       <c r="W4">
-        <v>0.05069999336959035</v>
+        <v>0.0183011583011583</v>
       </c>
       <c r="X4">
-        <v>0.04275317736605676</v>
+        <v>0.04397228642184846</v>
       </c>
       <c r="Y4">
-        <v>0.007946816003533592</v>
+        <v>-0.02567112812069016</v>
       </c>
       <c r="Z4">
-        <v>0.3252506466085306</v>
+        <v>-0.2757689340426323</v>
       </c>
       <c r="AA4">
-        <v>-0.001082205111160624</v>
+        <v>-0.0006276794190116547</v>
       </c>
       <c r="AB4">
-        <v>0.04229912657487272</v>
+        <v>0.03650911684989212</v>
       </c>
       <c r="AC4">
-        <v>-0.04338133168603334</v>
+        <v>-0.03713679626890378</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>71.3</v>
       </c>
       <c r="AE4">
-        <v>2170.33678020797</v>
+        <v>0.2781731868509491</v>
       </c>
       <c r="AF4">
-        <v>2170.33678020797</v>
+        <v>71.57817318685095</v>
       </c>
       <c r="AG4">
-        <v>2170.33678020797</v>
+        <v>-602.6218268131491</v>
       </c>
       <c r="AH4">
-        <v>0.03608781206793998</v>
+        <v>0.3097573959483074</v>
       </c>
       <c r="AI4">
-        <v>0.03538725079743565</v>
+        <v>0.2309135912731008</v>
       </c>
       <c r="AJ4">
-        <v>0.03608781206793998</v>
+        <v>1.359946160059627</v>
       </c>
       <c r="AK4">
-        <v>0.03538725079743565</v>
+        <v>1.654546165137716</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>250.1754385964912</v>
       </c>
       <c r="AP4">
-        <v>6.574785762520357</v>
+        <v>-2114.462550221576</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSBC Holdings plc (LSE:HSBA)</t>
+          <t>Close Brothers Group plc (LSE:CBG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +972,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0185</v>
+        <v>0.0295</v>
       </c>
       <c r="E5">
-        <v>-0.0184</v>
+        <v>-0.1</v>
       </c>
       <c r="F5">
-        <v>-0.0107</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1005,85 +993,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14487</v>
+        <v>143.9</v>
       </c>
       <c r="L5">
-        <v>0.275083548534103</v>
+        <v>0.146239837398374</v>
       </c>
       <c r="M5">
-        <v>10331.529</v>
+        <v>97</v>
       </c>
       <c r="N5">
-        <v>0.0650574253036561</v>
+        <v>0.03450238315430035</v>
       </c>
       <c r="O5">
-        <v>0.7131586249741148</v>
+        <v>0.6740792216817234</v>
       </c>
       <c r="P5">
-        <v>10331.529</v>
+        <v>86.5</v>
       </c>
       <c r="Q5">
-        <v>0.0650574253036561</v>
+        <v>0.03076758910151526</v>
       </c>
       <c r="R5">
-        <v>0.7131586249741148</v>
+        <v>0.6011118832522585</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="U5">
-        <v>151185</v>
+        <v>1920</v>
       </c>
       <c r="V5">
-        <v>0.9520088308839134</v>
+        <v>0.6829337696521306</v>
       </c>
       <c r="W5">
-        <v>0.0781598157010213</v>
+        <v>0.08365792686471718</v>
       </c>
       <c r="X5">
-        <v>0.1210132167843166</v>
+        <v>0.06004372683243941</v>
       </c>
       <c r="Y5">
-        <v>-0.04285340108329529</v>
+        <v>0.02361420003227777</v>
       </c>
       <c r="Z5">
-        <v>0.08342388979885376</v>
+        <v>0.2925524007730043</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0453711676940305</v>
+        <v>0.03789774082902279</v>
       </c>
       <c r="AC5">
-        <v>-0.0453711676940305</v>
+        <v>-0.03789774082902279</v>
       </c>
       <c r="AD5">
-        <v>677139</v>
+        <v>3455.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>677139</v>
+        <v>3455.3</v>
       </c>
       <c r="AG5">
-        <v>525954</v>
+        <v>1535.3</v>
       </c>
       <c r="AH5">
-        <v>0.8100278810108748</v>
+        <v>0.551374726730177</v>
       </c>
       <c r="AI5">
-        <v>0.7739385959498289</v>
+        <v>0.644657549581149</v>
       </c>
       <c r="AJ5">
-        <v>0.7680848320207815</v>
+        <v>0.3532104815147123</v>
       </c>
       <c r="AK5">
-        <v>0.7267157726313695</v>
+        <v>0.4463211139858717</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1100,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Secure Trust Bank Plc (LSE:STB)</t>
+          <t>Bank of Georgia Group PLC (LSE:BGEO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,13 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.119</v>
+        <v>0.0452</v>
       </c>
       <c r="E6">
-        <v>0.137</v>
-      </c>
-      <c r="F6">
-        <v>0.17</v>
+        <v>0.0291</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,91 +1109,88 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002249114653700373</v>
+        <v>0.001984343940255356</v>
       </c>
       <c r="J6">
-        <v>0.0001801639441805497</v>
+        <v>0.001834998930099125</v>
       </c>
       <c r="K6">
-        <v>38.4</v>
+        <v>96.8</v>
       </c>
       <c r="L6">
-        <v>0.2386575512740833</v>
+        <v>0.3841269841269841</v>
       </c>
       <c r="M6">
-        <v>19.4</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.04954034729315628</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.5052083333333334</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>19.4</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.04954034729315628</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.5052083333333334</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>215</v>
+        <v>655.2</v>
       </c>
       <c r="V6">
-        <v>0.5490296220633299</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="W6">
-        <v>0.1293364769282587</v>
+        <v>0.1408614668218859</v>
       </c>
       <c r="X6">
-        <v>0.06160345945832445</v>
+        <v>0.07816628962579467</v>
       </c>
       <c r="Y6">
-        <v>0.06773301746993422</v>
+        <v>0.06269517719609125</v>
       </c>
       <c r="Z6">
-        <v>0.3659154562600405</v>
+        <v>0.1172474908348428</v>
       </c>
       <c r="AA6">
-        <v>6.592477183643431e-05</v>
+        <v>0.0002151490202387436</v>
       </c>
       <c r="AB6">
-        <v>0.04592085830629483</v>
+        <v>0.03862743999685151</v>
       </c>
       <c r="AC6">
-        <v>-0.04585493353445839</v>
+        <v>-0.03841229097661276</v>
       </c>
       <c r="AD6">
-        <v>405.2</v>
+        <v>1668.1</v>
       </c>
       <c r="AE6">
-        <v>8.119058726109804</v>
+        <v>1.499726635278251</v>
       </c>
       <c r="AF6">
-        <v>413.3190587261098</v>
+        <v>1669.599726635278</v>
       </c>
       <c r="AG6">
-        <v>198.3190587261098</v>
+        <v>1014.399726635278</v>
       </c>
       <c r="AH6">
-        <v>0.5134914551287201</v>
+        <v>0.6783406785315439</v>
       </c>
       <c r="AI6">
-        <v>0.5750773597943754</v>
+        <v>0.6983436161693937</v>
       </c>
       <c r="AJ6">
-        <v>0.3361801179205268</v>
+        <v>0.5616521123809045</v>
       </c>
       <c r="AK6">
-        <v>0.3937096587682282</v>
+        <v>0.584466401479473</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1217,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>244.0963855421687</v>
+        <v>2085.125</v>
       </c>
       <c r="AP6">
-        <v>119.4693124856083</v>
+        <v>1267.999658294098</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bank of Georgia Group PLC (LSE:BGEO)</t>
+          <t>Secure Trust Bank PLC (LSE:STB)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1240,10 +1222,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.113</v>
+        <v>0.178</v>
       </c>
       <c r="E7">
-        <v>0.155</v>
+        <v>-0.0399</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1252,34 +1234,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00734167908050513</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006600697549178046</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>154.3</v>
+        <v>25.3</v>
       </c>
       <c r="L7">
-        <v>0.4727328431372549</v>
+        <v>0.1715254237288136</v>
       </c>
       <c r="M7">
-        <v>40.7336</v>
+        <v>4.58</v>
       </c>
       <c r="N7">
-        <v>0.0400842353867349</v>
+        <v>0.02057502246181491</v>
       </c>
       <c r="O7">
-        <v>0.2639896305897602</v>
+        <v>0.1810276679841897</v>
       </c>
       <c r="P7">
-        <v>40.7336</v>
+        <v>4.58</v>
       </c>
       <c r="Q7">
-        <v>0.0400842353867349</v>
+        <v>0.02057502246181491</v>
       </c>
       <c r="R7">
-        <v>0.2639896305897602</v>
+        <v>0.1810276679841897</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1288,67 +1270,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>463.3</v>
+        <v>187.7</v>
       </c>
       <c r="V7">
-        <v>0.4559141901200551</v>
+        <v>0.8432165318957772</v>
       </c>
       <c r="W7">
-        <v>0.2482703137570395</v>
+        <v>0.08284217419777343</v>
       </c>
       <c r="X7">
-        <v>0.07810577482573744</v>
+        <v>0.07331428747150111</v>
       </c>
       <c r="Y7">
-        <v>0.170164538931302</v>
+        <v>0.009527886726272319</v>
       </c>
       <c r="Z7">
-        <v>0.1690212280222</v>
+        <v>0.2976190476190477</v>
       </c>
       <c r="AA7">
-        <v>0.001115658005565199</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04702722629366974</v>
+        <v>0.04196131375167853</v>
       </c>
       <c r="AC7">
-        <v>-0.04591156828810454</v>
+        <v>-0.04196131375167853</v>
       </c>
       <c r="AD7">
-        <v>1935.2</v>
+        <v>417</v>
       </c>
       <c r="AE7">
-        <v>43.01837974061563</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1978.218379740616</v>
+        <v>417</v>
       </c>
       <c r="AG7">
-        <v>1514.918379740616</v>
+        <v>229.3</v>
       </c>
       <c r="AH7">
-        <v>0.660635264973218</v>
+        <v>0.6519699812382739</v>
       </c>
       <c r="AI7">
-        <v>0.7413171274214352</v>
+        <v>0.5649640970058257</v>
       </c>
       <c r="AJ7">
-        <v>0.5985173952614029</v>
+        <v>0.5074131445009958</v>
       </c>
       <c r="AK7">
-        <v>0.6869697775323298</v>
+        <v>0.4166061046511628</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>175.9272727272727</v>
-      </c>
-      <c r="AP7">
-        <v>137.7198527036923</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Barclays PLC (LSE:BARC)</t>
+          <t>HSBC Holdings plc (LSE:HSBA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1368,13 +1344,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0435</v>
-      </c>
-      <c r="E8">
-        <v>0.186</v>
+        <v>-0.0581</v>
       </c>
       <c r="F8">
-        <v>0.158</v>
+        <v>0.264</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1383,103 +1356,94 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.004414456476195365</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.00307824782963981</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2977.7</v>
+        <v>-841</v>
       </c>
       <c r="L8">
-        <v>0.1249737688130073</v>
+        <v>-0.01925939496645064</v>
       </c>
       <c r="M8">
-        <v>1488.703</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.0361469037120491</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.4999506330389227</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1488.703</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.0361469037120491</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.4999506330389227</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>192694.1</v>
+        <v>285508</v>
       </c>
       <c r="V8">
-        <v>4.678767409335483</v>
+        <v>2.724276584091434</v>
       </c>
       <c r="W8">
-        <v>0.03613362780312591</v>
+        <v>-0.0044375966272155</v>
       </c>
       <c r="X8">
-        <v>0.3980357659749334</v>
+        <v>0.1650229324507564</v>
       </c>
       <c r="Y8">
-        <v>-0.3619021381718075</v>
+        <v>-0.1694605290779718</v>
       </c>
       <c r="Z8">
-        <v>0.04005058171037255</v>
+        <v>0.06103252263194455</v>
       </c>
       <c r="AA8">
-        <v>-0.0001232856162257662</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04966909488675479</v>
+        <v>0.04209298446943716</v>
       </c>
       <c r="AC8">
-        <v>-0.04979238050298056</v>
+        <v>-0.04209298446943716</v>
       </c>
       <c r="AD8">
-        <v>789316.6</v>
+        <v>662948</v>
       </c>
       <c r="AE8">
-        <v>2450.407443378582</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>791767.0074433786</v>
+        <v>662948</v>
       </c>
       <c r="AG8">
-        <v>599072.9074433786</v>
+        <v>377440</v>
       </c>
       <c r="AH8">
-        <v>0.9505556028188346</v>
+        <v>0.8634953019826521</v>
       </c>
       <c r="AI8">
-        <v>0.9051994439452477</v>
+        <v>0.7680040407363686</v>
       </c>
       <c r="AJ8">
-        <v>0.9356746517516273</v>
+        <v>0.7826785506180099</v>
       </c>
       <c r="AK8">
-        <v>0.8784139986390062</v>
+        <v>0.6533483584068576</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>2050.705637828007</v>
-      </c>
-      <c r="AP8">
-        <v>1556.4377953842</v>
       </c>
     </row>
     <row r="9">
@@ -1490,7 +1454,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Royal Bank of Scotland Group plc (LSE:RBS)</t>
+          <t>Standard Chartered PLC (LSE:STAN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1499,10 +1463,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0534</v>
+        <v>0.00095</v>
       </c>
       <c r="F9">
-        <v>-0.0281</v>
+        <v>0.0493</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1511,103 +1475,94 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.01702956216497379</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.01434797558928542</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3072.4</v>
+        <v>1267</v>
       </c>
       <c r="L9">
-        <v>0.2052906234757218</v>
+        <v>0.098011913050205</v>
       </c>
       <c r="M9">
-        <v>821.2292</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.02136636867903714</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.2672924098424684</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>821.2292</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.02136636867903714</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.2672924098424684</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>118926.5</v>
+        <v>59238</v>
       </c>
       <c r="V9">
-        <v>3.09417571210024</v>
+        <v>2.958468176914779</v>
       </c>
       <c r="W9">
-        <v>0.04919200797985183</v>
+        <v>0.02499210983115039</v>
       </c>
       <c r="X9">
-        <v>0.1805332565481231</v>
+        <v>0.2397759528839768</v>
       </c>
       <c r="Y9">
-        <v>-0.1313412485682712</v>
+        <v>-0.2147838430528264</v>
       </c>
       <c r="Z9">
-        <v>0.08095760176714863</v>
+        <v>0.2549905317973805</v>
       </c>
       <c r="AA9">
-        <v>-0.001161577693922139</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04912073113425588</v>
+        <v>0.04370537446280871</v>
       </c>
       <c r="AC9">
-        <v>-0.05028230882817802</v>
+        <v>-0.04370537446280871</v>
       </c>
       <c r="AD9">
-        <v>284682.2</v>
+        <v>199331</v>
       </c>
       <c r="AE9">
-        <v>2752.830651586071</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>287435.0306515861</v>
+        <v>199331</v>
       </c>
       <c r="AG9">
-        <v>168508.5306515861</v>
+        <v>140093</v>
       </c>
       <c r="AH9">
-        <v>0.8820525804269409</v>
+        <v>0.9087174989127174</v>
       </c>
       <c r="AI9">
-        <v>0.8411111172340829</v>
+        <v>0.7976398653866932</v>
       </c>
       <c r="AJ9">
-        <v>0.814270644550385</v>
+        <v>0.8749458205977908</v>
       </c>
       <c r="AK9">
-        <v>0.756301479626878</v>
+        <v>0.7347676266501628</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>962.7399391274942</v>
-      </c>
-      <c r="AP9">
-        <v>569.8631405193983</v>
       </c>
     </row>
     <row r="10">
@@ -1618,124 +1573,359 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>NatWest Group plc (LSE:NWG)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>-0.102</v>
+      </c>
+      <c r="F10">
+        <v>-0.0297</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1497.5</v>
+      </c>
+      <c r="L10">
+        <v>0.1364141524559102</v>
+      </c>
+      <c r="M10">
+        <v>-0</v>
+      </c>
+      <c r="N10">
+        <v>-0</v>
+      </c>
+      <c r="O10">
+        <v>-0</v>
+      </c>
+      <c r="P10">
+        <v>-0</v>
+      </c>
+      <c r="Q10">
+        <v>-0</v>
+      </c>
+      <c r="R10">
+        <v>-0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>152918.7</v>
+      </c>
+      <c r="V10">
+        <v>5.515333927238235</v>
+      </c>
+      <c r="W10">
+        <v>0.02758954858155636</v>
+      </c>
+      <c r="X10">
+        <v>0.2459298998489448</v>
+      </c>
+      <c r="Y10">
+        <v>-0.2183403512673884</v>
+      </c>
+      <c r="Z10">
+        <v>0.04989058484276258</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.04527480661569754</v>
+      </c>
+      <c r="AC10">
+        <v>-0.04527480661569754</v>
+      </c>
+      <c r="AD10">
+        <v>284297.2</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>284297.2</v>
+      </c>
+      <c r="AG10">
+        <v>131378.5</v>
+      </c>
+      <c r="AH10">
+        <v>0.9111409308215125</v>
+      </c>
+      <c r="AI10">
+        <v>0.8359297494538324</v>
+      </c>
+      <c r="AJ10">
+        <v>0.8257366537485402</v>
+      </c>
+      <c r="AK10">
+        <v>0.7018895886969804</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barclays PLC (LSE:BARC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>-0.0314</v>
+      </c>
+      <c r="E11">
+        <v>0.333</v>
+      </c>
+      <c r="F11">
+        <v>0.0293</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3624.7</v>
+      </c>
+      <c r="L11">
+        <v>0.1623314971561646</v>
+      </c>
+      <c r="M11">
+        <v>-0</v>
+      </c>
+      <c r="N11">
+        <v>-0</v>
+      </c>
+      <c r="O11">
+        <v>-0</v>
+      </c>
+      <c r="P11">
+        <v>-0</v>
+      </c>
+      <c r="Q11">
+        <v>-0</v>
+      </c>
+      <c r="R11">
+        <v>-0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>311616.4</v>
+      </c>
+      <c r="V11">
+        <v>8.96508232423926</v>
+      </c>
+      <c r="W11">
+        <v>0.04451903791616463</v>
+      </c>
+      <c r="X11">
+        <v>0.5578711727472069</v>
+      </c>
+      <c r="Y11">
+        <v>-0.5133521348310423</v>
+      </c>
+      <c r="Z11">
+        <v>0.0329316077361625</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.04586484849316996</v>
+      </c>
+      <c r="AC11">
+        <v>-0.04586484849316996</v>
+      </c>
+      <c r="AD11">
+        <v>882823</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>882823</v>
+      </c>
+      <c r="AG11">
+        <v>571206.6</v>
+      </c>
+      <c r="AH11">
+        <v>0.9621190217461787</v>
+      </c>
+      <c r="AI11">
+        <v>0.9081376082718606</v>
+      </c>
+      <c r="AJ11">
+        <v>0.9426388135958235</v>
+      </c>
+      <c r="AK11">
+        <v>0.8647985195644022</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Virgin Money UK PLC (LSE:VMUK)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.105</v>
-      </c>
-      <c r="F10">
-        <v>-0.07730000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-0.02039527733008782</v>
-      </c>
-      <c r="J10">
-        <v>-0.02039527733008782</v>
-      </c>
-      <c r="K10">
-        <v>-329.6</v>
-      </c>
-      <c r="L10">
-        <v>-0.1790136867260482</v>
-      </c>
-      <c r="M10">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="N10">
-        <v>0.02677125788621518</v>
-      </c>
-      <c r="O10">
-        <v>-0.2909587378640777</v>
-      </c>
-      <c r="P10">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>0.02677125788621518</v>
-      </c>
-      <c r="R10">
-        <v>-0.2909587378640777</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>12491.4</v>
-      </c>
-      <c r="V10">
-        <v>3.487074981854726</v>
-      </c>
-      <c r="W10">
-        <v>-0.07930130163847653</v>
-      </c>
-      <c r="X10">
-        <v>0.1632717429010774</v>
-      </c>
-      <c r="Y10">
-        <v>-0.242573044539554</v>
-      </c>
-      <c r="Z10">
-        <v>0.2648081227522751</v>
-      </c>
-      <c r="AA10">
-        <v>-0.005400835102792587</v>
-      </c>
-      <c r="AB10">
-        <v>0.05209579781297365</v>
-      </c>
-      <c r="AC10">
-        <v>-0.05749663291576624</v>
-      </c>
-      <c r="AD10">
-        <v>23046.8</v>
-      </c>
-      <c r="AE10">
-        <v>402.7589231007885</v>
-      </c>
-      <c r="AF10">
-        <v>23449.55892310079</v>
-      </c>
-      <c r="AG10">
-        <v>10958.15892310079</v>
-      </c>
-      <c r="AH10">
-        <v>0.8674818013067316</v>
-      </c>
-      <c r="AI10">
-        <v>0.7915420465412437</v>
-      </c>
-      <c r="AJ10">
-        <v>0.7536374432746065</v>
-      </c>
-      <c r="AK10">
-        <v>0.6395653733826221</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>535.9720930232558</v>
-      </c>
-      <c r="AP10">
-        <v>254.8409051883904</v>
+      <c r="D12">
+        <v>0.0121</v>
+      </c>
+      <c r="F12">
+        <v>0.0929</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-284.5</v>
+      </c>
+      <c r="L12">
+        <v>-0.2335412904285011</v>
+      </c>
+      <c r="M12">
+        <v>102.2</v>
+      </c>
+      <c r="N12">
+        <v>0.03868720899420828</v>
+      </c>
+      <c r="O12">
+        <v>-0.3592267135325132</v>
+      </c>
+      <c r="P12">
+        <v>102.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.03868720899420828</v>
+      </c>
+      <c r="R12">
+        <v>-0.3592267135325132</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>12622.5</v>
+      </c>
+      <c r="V12">
+        <v>4.778173146080176</v>
+      </c>
+      <c r="W12">
+        <v>-0.04606839821231945</v>
+      </c>
+      <c r="X12">
+        <v>0.1818875193125367</v>
+      </c>
+      <c r="Y12">
+        <v>-0.2279559175248561</v>
+      </c>
+      <c r="Z12">
+        <v>0.07815988707814706</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.04772855278590987</v>
+      </c>
+      <c r="AC12">
+        <v>-0.04772855278590987</v>
+      </c>
+      <c r="AD12">
+        <v>18873.7</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>18873.7</v>
+      </c>
+      <c r="AG12">
+        <v>6251.200000000001</v>
+      </c>
+      <c r="AH12">
+        <v>0.8772181786069513</v>
+      </c>
+      <c r="AI12">
+        <v>0.7474259056851844</v>
+      </c>
+      <c r="AJ12">
+        <v>0.7029427970628254</v>
+      </c>
+      <c r="AK12">
+        <v>0.4949838072388373</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
